--- a/shifttable.xlsx
+++ b/shifttable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\王雅萱\A元气咖啡厅\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B3CB538-13E2-47F4-9465-1F2BE18AB7CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58CD1A34-7486-42F3-A785-1DF2FFB7265D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -117,62 +117,84 @@
     <t>冯子桐</t>
   </si>
   <si>
+    <t>马境晗</t>
+  </si>
+  <si>
+    <t>王逊衡</t>
+  </si>
+  <si>
+    <t>张嘉琪</t>
+  </si>
+  <si>
+    <t>韩若水</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>何家骞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杨丰源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王心昱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吴乐言</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杨旭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杨静怡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>万曈舟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周敏征</t>
+  </si>
+  <si>
+    <t>刘宇轩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>时艺宁</t>
-  </si>
-  <si>
-    <t>马境晗</t>
-  </si>
-  <si>
-    <t>王逊衡</t>
-  </si>
-  <si>
-    <t>张嘉琪</t>
-  </si>
-  <si>
-    <t>韩若水</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>高孟芳菲</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>何家骞</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>杨丰源</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>王心昱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>吴乐言</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>杨旭</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>杨静怡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>万曈舟</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>李天元</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>周敏征</t>
-  </si>
-  <si>
-    <t>刘宇轩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>薛奕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>（单）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>高孟芳菲
+（双）张笑微</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -180,7 +202,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -206,6 +228,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -267,7 +297,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -289,6 +319,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -573,7 +606,7 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="155" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -635,16 +668,16 @@
         <v>7</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>15</v>
@@ -660,10 +693,10 @@
         <v>14</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>13</v>
@@ -679,24 +712,24 @@
         <v>9</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>17</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:8" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A7" s="2" t="s">
         <v>11</v>
       </c>
@@ -704,16 +737,16 @@
         <v>20</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>38</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>16</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
@@ -728,7 +761,7 @@
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H8" s="3" t="s">
         <v>21</v>
@@ -747,7 +780,7 @@
         <v>36</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
